--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-299.2287902832031</v>
+        <v>-300.39990234375</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-300.39990234375</v>
+        <v>-299.2287902832031</v>
       </c>
     </row>
   </sheetData>
